--- a/_Airboss.xlsx
+++ b/_Airboss.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coden\Python\text-to-speech\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Coden\Python\text-to-speech\MTTS\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F15FAA25-1AE5-4954-A516-71BFFEDB7094}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EFDF47B-6D98-4D2D-AFE9-F08B0E364C66}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33168" yWindow="2028" windowWidth="28020" windowHeight="13548" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="31236" yWindow="1344" windowWidth="28020" windowHeight="13548" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="208">
   <si>
     <t>Spin it!</t>
   </si>
@@ -615,9 +615,6 @@
     <t>Volume Boost</t>
   </si>
   <si>
-    <t>Filter Boost</t>
-  </si>
-  <si>
     <t>Noise Boost</t>
   </si>
   <si>
@@ -643,6 +640,15 @@
   </si>
   <si>
     <t>Subtitle</t>
+  </si>
+  <si>
+    <t>Nfilter</t>
+  </si>
+  <si>
+    <t>Click In</t>
+  </si>
+  <si>
+    <t>Click Out</t>
   </si>
 </sst>
 </file>
@@ -688,7 +694,7 @@
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -969,10 +975,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L109"/>
+  <dimension ref="A1:N109"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -982,12 +988,13 @@
     <col min="3" max="3" width="7.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.77734375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="10.88671875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="7.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" ht="13.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>179</v>
       </c>
@@ -995,7 +1002,7 @@
         <v>180</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>192</v>
@@ -1007,25 +1014,31 @@
         <v>194</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="I1" s="1" t="s">
         <v>196</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="J1" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="K1" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="M1" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -1033,7 +1046,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -1041,7 +1054,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -1049,7 +1062,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>6</v>
       </c>
@@ -1057,7 +1070,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1065,7 +1078,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1073,7 +1086,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>9</v>
       </c>
@@ -1081,7 +1094,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>13</v>
       </c>
@@ -1089,7 +1102,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>15</v>
       </c>
@@ -1097,7 +1110,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>17</v>
       </c>
@@ -1105,7 +1118,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>19</v>
       </c>
@@ -1113,7 +1126,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -1121,24 +1134,24 @@
         <v>22</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>21</v>
       </c>
       <c r="B14" t="s">
         <v>23</v>
       </c>
-      <c r="G14">
+      <c r="H14">
         <v>50</v>
       </c>
       <c r="K14" t="s">
+        <v>200</v>
+      </c>
+      <c r="L14" t="s">
         <v>201</v>
       </c>
-      <c r="L14" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -1146,7 +1159,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -1161,14 +1174,14 @@
       <c r="B17" t="s">
         <v>28</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>50</v>
       </c>
       <c r="K17" t="s">
+        <v>200</v>
+      </c>
+      <c r="L17" t="s">
         <v>201</v>
-      </c>
-      <c r="L17" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.3">
@@ -1202,14 +1215,14 @@
       <c r="B21" t="s">
         <v>35</v>
       </c>
-      <c r="G21">
+      <c r="H21">
         <v>50</v>
       </c>
       <c r="K21" t="s">
+        <v>200</v>
+      </c>
+      <c r="L21" t="s">
         <v>201</v>
-      </c>
-      <c r="L21" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.3">
@@ -1315,14 +1328,14 @@
       <c r="B34" t="s">
         <v>63</v>
       </c>
-      <c r="G34">
+      <c r="H34">
         <v>50</v>
       </c>
       <c r="K34" t="s">
+        <v>200</v>
+      </c>
+      <c r="L34" t="s">
         <v>201</v>
-      </c>
-      <c r="L34" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.3">
@@ -1348,14 +1361,14 @@
       <c r="B37" t="s">
         <v>68</v>
       </c>
-      <c r="G37">
+      <c r="H37">
         <v>50</v>
       </c>
       <c r="K37" t="s">
+        <v>200</v>
+      </c>
+      <c r="L37" t="s">
         <v>201</v>
-      </c>
-      <c r="L37" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.3">
@@ -1451,7 +1464,7 @@
         <v>86</v>
       </c>
       <c r="B49" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
@@ -1467,7 +1480,7 @@
         <v>88</v>
       </c>
       <c r="B51" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
